--- a/Input Document/CR/Review/PO_SP_CR_MobileApplication_Review_Template.xlsx
+++ b/Input Document/CR/Review/PO_SP_CR_MobileApplication_Review_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a221a7473af3aa17/Desktop/Mobile_SWProcess_Documents/Mobile_SWProcess_Documents/Input Document/CR/Review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="11_F60260F8A775294207B2340B55DCB40F6E8959C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5149DA48-BF9C-43C2-A828-A7961538D642}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="11_F60260F8A775294207B2340B55DCB40F6E8959C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD4E3DDF-F955-4266-8324-F48E319D64E1}"/>
   <bookViews>
     <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Entry Date</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Closed</t>
   </si>
 </sst>
 </file>
@@ -457,8 +460,8 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -520,7 +523,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -546,7 +549,7 @@
         <v>17</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
